--- a/Bases finales/Partidos.xlsx
+++ b/Bases finales/Partidos.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaquelinmorillo/Documents/GitHub/EcoPolLast/Bases finales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F55DEB-C713-1B4D-AD02-433C2111426D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB8C603-003D-8A42-A135-75273A95AAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3980" yWindow="1380" windowWidth="27640" windowHeight="16440" xr2:uid="{783209A1-F7C0-FB4F-8261-8FA0DE4427AA}"/>
+    <workbookView xWindow="1160" yWindow="1380" windowWidth="27640" windowHeight="16440" xr2:uid="{783209A1-F7C0-FB4F-8261-8FA0DE4427AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$B$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$B$16</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>PH</t>
   </si>
@@ -50,9 +50,6 @@
     <t>UDI</t>
   </si>
   <si>
-    <t>EVOPOLI</t>
-  </si>
-  <si>
     <t>PS</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t>PEV</t>
   </si>
   <si>
-    <t>PP</t>
-  </si>
-  <si>
     <t>FRVS</t>
   </si>
   <si>
@@ -93,6 +87,9 @@
   </si>
   <si>
     <t>cantidad</t>
+  </si>
+  <si>
+    <t>EVO</t>
   </si>
 </sst>
 </file>
@@ -460,20 +457,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABF47D0-3D36-C549-AB57-0F0B8DBDCE64}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B17"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -486,7 +483,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>34</v>
@@ -494,7 +491,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -502,7 +499,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>12</v>
@@ -510,7 +507,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -526,7 +523,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -534,7 +531,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>18</v>
@@ -542,7 +539,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -550,7 +547,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -566,7 +563,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -574,40 +571,32 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B17" xr:uid="{FABF47D0-3D36-C549-AB57-0F0B8DBDCE64}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B17">
-      <sortCondition ref="A1:A17"/>
+  <autoFilter ref="A1:B16" xr:uid="{FABF47D0-3D36-C549-AB57-0F0B8DBDCE64}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B16">
+      <sortCondition ref="A1:A16"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
